--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,23 +15,129 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>Topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML DOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById("demo").innerHTML = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button Invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;button type="button" onclick="loadDoc()"&gt;Change Content&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>Simple post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post JSON ???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function loadDoc() {
+  var xhttp = new XMLHttpRequest();
+  xhttp.onreadystatechange = function() {
+    if (xhttp.readyState == 4 &amp;&amp; xhttp.status == 200) {
+      document.getElementById("demo").innerHTML = xhttp.responseText;
+    }
+  };
+  xhttp.open("GET", "ajax_info.txt", true);
+  xhttp.send();
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhttp.open("POST", "ajax_test.asp", true);
+xhttp.setRequestHeader("Content-type", "application/x-www-form-urlencoded");
+xhttp.send("fname=Henry&amp;lname=Ford");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manipulate Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhttp.responseText;
+OR
+xmlDoc = xhttp.responseXML;
+txt = "";
+x = xmlDoc.getElementsByTagName("ARTIST");
+for (i = 0; i &lt; x.length; i++) {
+  txt += x[i].childNodes[0].nodeValue + "&lt;br&gt;";
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,19 +152,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -132,6 +249,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,6 +284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +460,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,11 +57,7 @@
     <t>&lt;button type="button" onclick="loadDoc()"&gt;Change Content&lt;/button&gt;</t>
   </si>
   <si>
-    <t>Simple post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post JSON ???</t>
+    <t>Manipulate Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,13 +74,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xhttp.open("POST", "ajax_test.asp", true);
-xhttp.setRequestHeader("Content-type", "application/x-www-form-urlencoded");
-xhttp.send("fname=Henry&amp;lname=Ford");</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manipulate Response</t>
+    <t>Parse JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+var text = '{ "name":"John Johnson",  "street":"Oslo West 16",  "phone":"555 1234567", "employees":[{"firstname":"Tom", "position":"Manager"},{"firstname":"Mary", "position":"Supervisor", "age":25}]}';
+var obj = JSON.parse(text);
+document.getElementById("demo").innerHTML =
+obj.name + "&lt;br&gt;" +
+obj.employees[0].firstname + "-" +
+obj.employees[0].position+ "&lt;br&gt;" +
+obj.employees[1].firstname + "-" +
+obj.employees[1].age+ "&lt;br&gt;" +
+obj.street + "&lt;br&gt;" +
+obj.phone;
+&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "name":"John Johnson",  
+   "street":"Oslo West 16",  
+   "phone":"555 1234567", 
+   "employees":[
+          {"firstname":"Tom", "position":"Manager"},
+          {"firstname":"Mary", "position":"Supervisor", "age":25}]
+}
+注: 有時空行會影响JSON的解析(parsing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,6 +128,14 @@
 for (i = 0; i &lt; x.length; i++) {
   txt += x[i].childNodes[0].nodeValue + "&lt;br&gt;";
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhttp.open("POST", "ajax_test.asp", true);
+xhttp.setRequestHeader("Content-type", "application/x-www-form-urlencoded");
+OR
+xhttp.setRequestHeader("Content-type","application/json");
+xhttp.send("fname=Henry&amp;lname=Ford");</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -493,62 +533,79 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C9">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,54 +11,106 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simple get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTML DOM</t>
+    <t>&lt;button type="button" onclick="loadDoc()"&gt;Change Content&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>Javascript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">document.getElementById("demo").innerHTML = </t>
+    <t>JSON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Button Invoke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;button type="button" onclick="loadDoc()"&gt;Change Content&lt;/button&gt;</t>
-  </si>
-  <si>
-    <t>Manipulate Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>&lt;script&gt;
+var person = {
+    firstName: "John",
+    lastName : "Doe",
+    id       : 5566,
+    fullName : function() {
+       return this.firstName + " " + this.lastName;
+    }
+};
+document.getElementById("demo").innerHTML = person.fullName();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+document.getElementById("demo").innerHTML = "Hello \
+World!";
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>String define in multi line</t>
+  </si>
+  <si>
+    <t>l = arr.length;
+for (i = 0; i &lt; l; i++) {</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>{ "name":"John Johnson",  
+   "street":"Oslo West 16",  
+   "phone":"555 1234567", 
+   "employees":[
+          {"firstname":"Tom", "position":"Manager"},
+          {"firstname":"Mary", "position":"Supervisor", "age":25}]
+}
+注: 有時空行會影响JSON的解析(parsing)</t>
+  </si>
+  <si>
+    <t>Sort with comparator</t>
+  </si>
+  <si>
+    <t>var array=[a,b,c,d];
+array.sort(function(I,j){ return i-j;});</t>
+  </si>
+  <si>
+    <t>Default Object</t>
+  </si>
+  <si>
+    <t>Array.sort();
+Math.random();
+Date.getDay();
+…</t>
+  </si>
+  <si>
+    <t>onload="run js code here with ; seperating statements"
+onsubmit=""
+onclick=""</t>
+  </si>
+  <si>
+    <t>Brief</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Simple get</t>
   </si>
   <si>
     <t>function loadDoc() {
@@ -71,15 +123,41 @@
   xhttp.open("GET", "ajax_info.txt", true);
   xhttp.send();
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple post</t>
+  </si>
+  <si>
+    <t>xhttp.open("POST", "ajax_test.asp", true);
+xhttp.setRequestHeader("Content-type", "application/x-www-form-urlencoded");
+OR
+xhttp.setRequestHeader("Content-type","application/json");
+xhttp.send("fname=Henry&amp;lname=Ford");</t>
+  </si>
+  <si>
+    <t>Manipulate Response</t>
+  </si>
+  <si>
+    <t>xhttp.responseText;
+OR
+xmlDoc = xhttp.responseXML;
+txt = "";
+x = xmlDoc.getElementsByTagName("ARTIST");
+for (i = 0; i &lt; x.length; i++) {
+  txt += x[i].childNodes[0].nodeValue + "&lt;br&gt;";
+}</t>
+  </si>
+  <si>
+    <t>HTML DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById("demo").innerHTML = </t>
+  </si>
+  <si>
+    <t>Button Invoke</t>
   </si>
   <si>
     <t>Parse JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;script&gt;
@@ -94,66 +172,228 @@
 obj.street + "&lt;br&gt;" +
 obj.phone;
 &lt;/script&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "name":"John Johnson",  
-   "street":"Oslo West 16",  
-   "phone":"555 1234567", 
-   "employees":[
-          {"firstname":"Tom", "position":"Manager"},
-          {"firstname":"Mary", "position":"Supervisor", "age":25}]
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById("demo").innerHTML = "Hello World!";
+document.getElementById(id)
+document.getElementsByTagName(name) 
+document.getElementsByClassName(name) </t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>Get Element</t>
+  </si>
+  <si>
+    <t>Chg element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">element.innerHTML =  new html content
+element.attribute = new value
+element.setAttribute(attribute, value) 
+element.style.property = new style </t>
+  </si>
+  <si>
+    <t>Add/rmv element</t>
+  </si>
+  <si>
+    <t>document.createElement(element) 
+document.removeChild(element)
+document.appendChild(element)
+document.replaceChild(element)
+document.write(text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById(id).onclick = function(){code} </t>
+  </si>
+  <si>
+    <t>Events Handlers</t>
+  </si>
+  <si>
+    <t>Add event handler</t>
+  </si>
+  <si>
+    <t>define json</t>
+  </si>
+  <si>
+    <t>// Data
+var players = [
+  {
+    name: "Tom Chan",
+    score: 78,
+    pic: "http://placehold.it/150x150&amp;text=FW"
+  },
+  {
+    name: "Steven Ku",
+    score: 73,
+    pic: "http://placehold.it/150x150&amp;text=KW"
+  },
+  {
+    name: "Francis Wong",
+    score: 82,
+    pic: "http://placehold.it/150x150&amp;text=TC"
+  },
+  {
+    name: "Ken Wong",
+    score: 98,
+    pic: "http://placehold.it/150x150&amp;text=SK"
+  },
+];</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>Dicky w HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Data
+var players = [
+  {
+    name: "Tom Chan",
+    score: 78,
+    pic: "http://placehold.it/150x150&amp;text=FW"
+  },
+  {
+    name: "Steven Ku",
+    score: 73,
+    pic: "http://placehold.it/150x150&amp;text=KW"
+  },
+  {
+    name: "Francis Wong",
+    score: 82,
+    pic: "http://placehold.it/150x150&amp;text=TC"
+  },
+  {
+    name: "Ken Wong",
+    score: 98,
+    pic: "http://placehold.it/150x150&amp;text=SK"
+  },
+];
+// construct the list from data
+function createListFromData() {
+ // empty the container
+ $('#player-board').empty();
+ // construct the list
+ $.each(players, function(){
+  var playerObj = this;
+  var clone = $('.template').find('.player').clone();
+  clone.find('.name').text( playerObj.name );
+  clone.find('.score').text( playerObj.score );
+  clone.find('.profile-pic img').prop( 'src', playerObj.pic );
+  $('#player-board').append(clone);
+  }
+ );  
 }
-注: 有時空行會影响JSON的解析(parsing)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simple post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xhttp.responseText;
-OR
-xmlDoc = xhttp.responseXML;
-txt = "";
-x = xmlDoc.getElementsByTagName("ARTIST");
-for (i = 0; i &lt; x.length; i++) {
-  txt += x[i].childNodes[0].nodeValue + "&lt;br&gt;";
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xhttp.open("POST", "ajax_test.asp", true);
-xhttp.setRequestHeader("Content-type", "application/x-www-form-urlencoded");
-OR
-xhttp.setRequestHeader("Content-type","application/json");
-xhttp.send("fname=Henry&amp;lname=Ford");</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+// call the function once on start up
+//createListFromData();
+// View links handling
+$(document).on("click", '.sorting-controls &gt; a', 
+ function(){
+  // determine which sorting
+  var sortBy = $(this).attr('href').substring(1); // get 'ascend' or 'descend'
+  var sortFactor;
+  // tell the user that we are sorting.
+  $('.current-sorting-by').find('span').text( sortBy );
+  // sort the data
+  if (sortBy=='ascend'){
+   alert ('in ascend sortFactor condition');
+   sortFactor=-1;
+  }
+  if (sortBy=='descend'){
+   alert ('in descend sortFactor condition');
+   sortFactor=1;
+  }
+  players.sort(
+   function(a, b){
+    if (a.score &lt;= b.score) {
+       return sortFactor;
+     } else {
+       return sortFactor * -1;
+     }
+   }
+  );
+  createListFromData();
+  return false;
+ }
+);
+&lt;!DOCTYPE html&gt;
+&lt;html lang="en"&gt;
+ &lt;head&gt;
+  &lt;!--Custom css style--&gt;
+  &lt;link rel="stylesheet" href="css.css"&gt;
+  &lt;!-- JQuery scripts and Bootstrap Core scripts --&gt;
+  &lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/1.12.0/jquery.min.js"&gt;&lt;/script&gt;
+  &lt;script type="text/javascript" src="js.js"&gt;&lt;/script&gt;
+ &lt;/head&gt;
+ &lt;body onload="createListFromData();"&gt;
+  &lt;p class='sorting-controls'&gt;Sort by: &lt;a href='#ascend'&gt;Score Ascending&lt;/a&gt; | &lt;a href='#descend'&gt;Score Descending&lt;/a&gt;&lt;/p&gt;
+  &lt;p class='current-sorting-by'&gt;Currently sorting by &lt;span&gt;nothing&lt;/span&gt;.&lt;/p&gt;
+  &lt;div id="player-board"&gt;
+  &lt;/div&gt;
+  &lt;a href='#return'&gt;Return&lt;/a&gt;
+  &lt;!-- Not for displaying. For JS to use --&gt;
+  &lt;div class="template"&gt;
+    &lt;div class="player"&gt;
+   &lt;div class="profile-pic"&gt;
+     &lt;img src='' alt='profile pic placeholder'&gt;
+   &lt;/div&gt;
+   &lt;p class="name"&gt;&lt;/p&gt;
+   &lt;p class="score"&gt;&lt;/p&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/body&gt;
+&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The jQuery syntax is tailor-made for selecting HTML elements and performing some action on the element(s).
+Basic syntax is: $(selector).action()
+A $ sign to define/access jQuery
+A (selector) to "query (or find)" HTML elements
+A jQuery action() to be performed on the element(s)
+Examples:
+$(this).hide() - hides the current element.
+$("p").hide() - hides all &lt;p&gt; elements.
+$(".test").hide() - hides all elements with class="test".
+$("#test").hide() - hides the element with id="test".
+</t>
+  </si>
+  <si>
+    <t>JQuery</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>可以用其定義好的FUNC做FADE SLIDE等動作.</t>
+  </si>
+  <si>
+    <t>有種叫CALLBACK的機構, 或許可以應用到AJAX上以除去複雜的來回Calling</t>
+  </si>
+  <si>
+    <t>AJAX = Asynchronous JavaScript and XML.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -164,6 +404,20 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -192,17 +446,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,8 +472,53 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3105150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="DOM HTML tree"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5305425" y="4705350"/>
+          <a:ext cx="4629150" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -289,7 +592,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,7 +626,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,106 +801,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="13" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" customHeight="1">
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" customHeight="1">
+      <c r="C24" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -609,16 +1071,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,12 +1089,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,22 +378,62 @@
   <si>
     <t>AJAX = Asynchronous JavaScript and XML.</t>
   </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html lang="zh-cn"&gt;
+ &lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;meta name="description" content="Home page of Handson, a social entreprise devoted on connecting technology and social issue"&gt;
+  &lt;meta name="author" content="Myles Ieong"&gt;
+  &lt;meta name="robots" content="index, follow"&gt;
+  &lt;!-- JQuery scripts and Bootstrap Core scripts --&gt;
+  &lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/1.12.0/jquery.min.js"&gt;&lt;/script&gt;
+  &lt;script&gt;
+  function ws_results(obj) {
+   alert(obj.ResultSet.totalResultsAvailable);
+  }
+  $(document).ready(function(){
+   $("p").click(function(){
+    $(this).hide();
+    jQuery.getJSON("http://api.flickr.com/services/feeds/photos_public.gne?tags=cat&amp;tagmode=any&amp;format=json&amp;jsoncallback=?", 
+     function(data) {
+      alert("response: " + data.title);
+     }
+    );
+   });
+  });
+  &lt;/script&gt;
+ &lt;/head&gt;
+ &lt;body&gt;
+  &lt;p&gt;If you click on me, I will disappear.&lt;/p&gt;
+  &lt;p&gt;Click me away!&lt;/p&gt;
+  &lt;p&gt;Click me too!&lt;/p&gt;
+ &lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callback + jsonp + 跨域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -415,7 +455,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -460,7 +500,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,7 +558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,6 +632,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -626,6 +667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,21 +843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1">
+    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -837,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" customHeight="1">
+    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -848,7 +890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1">
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -859,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -870,7 +912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" customHeight="1">
+    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -881,7 +923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" customHeight="1">
+    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -892,7 +934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1">
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -903,7 +945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" customHeight="1">
+    <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -914,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" customHeight="1">
+    <row r="10" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -925,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" customHeight="1">
+    <row r="11" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -936,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" customHeight="1">
+    <row r="12" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -947,7 +989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" customHeight="1">
+    <row r="13" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -958,7 +1000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" customHeight="1">
+    <row r="14" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -969,7 +1011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" customHeight="1">
+    <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -980,7 +1022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" customHeight="1">
+    <row r="16" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -991,7 +1033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" customHeight="1">
+    <row r="17" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1002,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" customHeight="1">
+    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" customHeight="1">
+    <row r="19" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" customHeight="1">
+    <row r="20" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1035,7 +1077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" customHeight="1">
+    <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1046,7 +1088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" customHeight="1">
+    <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1054,14 +1096,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" customHeight="1">
+    <row r="23" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" customHeight="1">
+    <row r="24" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1076,12 +1135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,12 +1148,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,6 +416,48 @@
   </si>
   <si>
     <t>callback + jsonp + 跨域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    jQuery.ajax({
+     contentType:'application/json; charset=UTF-8',
+     //accepts: 'application/json',
+     crossDomain :true,
+     //username: 'e_DISiAJEY4IdwopGOjmDg',
+     //password:'SXuVEJtkqDqWL_DnPHOx0Q',
+     dataType: "json",
+     method: 'POST',
+     url: 'http://api.flickr.com/services/feeds/photos_public.gne?tags=cat&amp;tagmode=any&amp;format=json&amp;jsoncallback=?',
+     success: function(data) {
+      alert("response: " + data.title);
+     }
+    }).done(function(){
+     alert("request sent.")
+    }).fail(function(){
+     alert( "error" );
+    }).always(function() {
+     alert( "complete" );
+    });</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    jQuery.getJSON("http://api.flickr.com/services/feeds/photos_public.gne?tags=cat&amp;tagmode=any&amp;format=json&amp;jsoncallback=?", 
+     function(data) {
+      alert("response: " + data.title);
+     }
+    );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getJson equivalence- Ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,6 +1163,28 @@
       </c>
       <c r="C25" s="4" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,12 +460,80 @@
     <t>getJson equivalence- Ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String.search(regrex) -&gt; returns the index number 
+String.match(regecc) -&gt; returns strings hitten 
+String.replace(regex); -&gt;operates the replacement
+regex.test(string); -&gt; returns ture/false
+regex.exec(string); -&gt; returns the hitten string </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regex Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regex patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//select integers only
+var intRegex = /[0-9 -()+]+$/;   
+//match any ip address
+var ipRegex = 'bd{1,3}.d{1,3}.d{1,3}.d{1,3}b';  
+//match number in range 0-255
+var num0to255Regex = '^([01][0-9][0-9]|2[0-4][0-9]|25[0-5])$';
+//match number in range 0-999 
+var num0to999Regex = '^([0-9]|[1-9][0-9]|[1-9][0-9][0-9])$';
+//match ints and floats/decimals
+var floatRegex = '[-+]?([0-9]*.[0-9]+|[0-9]+)'; 
+//Match Any number from 1 to 50 inclusive
+var number1to50Regex = /(^[1-9]{1}$|^[1-4]{1}[0-9]{1}$|^50$)/gm; 
+//match email address
+var emailRegex = '^[A-Z0-9._%+-]+@[A-Z0-9.-]+.[A-Z]{2,4}$'; 
+//match credit card numbers
+var creditCardRegex = '^(?:4[0-9]{12}(?:[0-9]{3})?|5[1-5][0-9]{14}|6(?:011|5[0-9][0-9])[0-9]{12}|3[47][0-9]{13}|3(?:0[0-5]|[68][0-9])[0-9]{11}|(?:2131|1800|35d{3})d{11})$'; 
+//match username
+var usernameRegex = '/^[a-z0-9_-]{3,16}$/'; 
+//match password
+var passwordRegex = '/^[a-z0-9_-]{6,18}$/'; 
+//Match 8 to 15 character string with at least one upper case letter, one lower case letter, and one digit (useful for passwords).
+var passwordStrengthRegex = /((?=.*d)(?=.*[a-z])(?=.*[A-Z]).{8,15})/gm; 
+//match elements that could contain a phone number
+var phoneNumber = /[0-9-()+]{3,20}/; 
+//MatchDate (e.g. 21/3/2006)
+var dateRegex = /(d{1,2}/d{1,2}/d{4})/gm; 
+//match date in format MM/DD/YYYY
+var dateMMDDYYYRegex = '^(0[1-9]|1[012])[- /.](0[1-9]|[12][0-9]|3[01])[- /.](19|20)dd$'; 
+//match date in format DD/MM/YYYY
+var dateDDMMYYYRegex = '^(0[1-9]|[12][0-9]|3[01])[- /.](0[1-9]|1[012])[- /.](19|20)dd$'; 
+//match a url
+var urlRegex = '/^(https?://)?([da-z.-]+).([a-z.]{2,6})([/w .-]*)*/?$/'; 
+//match a url slug (letters/numbers/hypens)
+var urlslugRegex = '/^[a-z0-9-]+$/'; 
+//match a url string (Fixes spaces and querystrings)
+var urlRegex = /(https?://)?([da-z.-]+).([a-z.]{2,6})([/w.-=?]*)*/?/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,7 +742,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -709,7 +776,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,21 +951,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="31.5" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -921,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="31.5" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="31.5" customHeight="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -943,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -954,7 +1020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="31.5" customHeight="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -965,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="31.5" customHeight="1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -976,7 +1042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="31.5" customHeight="1">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -987,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="31.5" customHeight="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="31.5" customHeight="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="31.5" customHeight="1">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="31.5" customHeight="1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="31.5" customHeight="1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="31.5" customHeight="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="31.5" customHeight="1">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1064,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="31.5" customHeight="1">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1075,7 +1141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="31.5" customHeight="1">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1086,7 +1152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="31.5" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1097,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="31.5" customHeight="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="31.5" customHeight="1">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1119,7 +1185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="31.5" customHeight="1">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1130,7 +1196,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="31.5" customHeight="1">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1138,7 +1204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="31.5" customHeight="1">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1146,7 +1212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="31.5" customHeight="1">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1154,7 +1220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="31.5" customHeight="1">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1165,7 +1231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="31.5" customHeight="1">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="31.5" customHeight="1">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1185,6 +1251,33 @@
       </c>
       <c r="C27" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1199,12 +1292,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1212,12 +1305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,6 +486,24 @@
   </si>
   <si>
     <t>Regex patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p id="demo_i"&gt;&lt;/p&gt;
+&lt;p id="demo_g"&gt;&lt;/p&gt;
+&lt;p id="demo_m"&gt;&lt;/p&gt;
+&lt;script&gt;
+function myFunction() {
+    var str = "Visit www.W3Schools.com";
+    var patt1 = /w/i;
+    var patt2 = /w/g;
+    var patt3 = /w/m;
+    var result = str.match(patt1);
+    document.getElementById("demo_i").innerHTML = result;
+document.getElementById("demo_g").innerHTML = result;
+document.getElementById("demo_m").innerHTML = result;
+}
+&lt;/script&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -954,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
@@ -1271,13 +1289,19 @@
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/javascript_lib.xlsx
+++ b/javascript_lib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,12 +546,39 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open new window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;SCRIPT TYPE="text/javascript"&gt;
+   &lt;!--
+   function popup(mylink, windowname){
+    if (! window.focus)return true;
+    var href;
+    if (typeof(mylink) == 'string')
+       href=mylink;
+    else
+       href=mylink.href;
+    window.open(href, windowname, 'width=520,height=530,scrollbars=no');
+    return false;
+   }
+   //--&gt;
+  &lt;/SCRIPT&gt;
+...
+       &lt;div class="text-center margin-t-2"&gt;&lt;a href="video.html" class="btn border-radius-5 border-color-white color-bg-purple" onclick="return popup(this,'南南的故事')" &gt;&lt;div class="padding-lr-3 color-ct-white"&gt;了解南南的故事&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +787,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -794,6 +822,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,21 +998,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1">
+    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" customHeight="1">
+    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1">
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" customHeight="1">
+    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" customHeight="1">
+    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1">
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" customHeight="1">
+    <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" customHeight="1">
+    <row r="10" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" customHeight="1">
+    <row r="11" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" customHeight="1">
+    <row r="12" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" customHeight="1">
+    <row r="13" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" customHeight="1">
+    <row r="14" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" customHeight="1">
+    <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1148,7 +1177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" customHeight="1">
+    <row r="16" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1159,7 +1188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" customHeight="1">
+    <row r="17" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" customHeight="1">
+    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" customHeight="1">
+    <row r="19" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" customHeight="1">
+    <row r="20" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1203,7 +1232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" customHeight="1">
+    <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1214,7 +1243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" customHeight="1">
+    <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1222,7 +1251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" customHeight="1">
+    <row r="23" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1230,7 +1259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" customHeight="1">
+    <row r="24" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5" customHeight="1">
+    <row r="25" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1249,7 +1278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" customHeight="1">
+    <row r="26" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1260,7 +1289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" customHeight="1">
+    <row r="27" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1271,7 +1300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" customHeight="1">
+    <row r="28" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1282,7 +1311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" customHeight="1">
+    <row r="29" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1293,7 +1322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" customHeight="1">
+    <row r="30" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1302,6 +1331,17 @@
       </c>
       <c r="C30" s="4" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1316,12 +1356,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,12 +1369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
